--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.956</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.716</v>
+        <v>12.919</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>13.064</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.42</v>
+        <v>12.913</v>
       </c>
     </row>
     <row r="9">
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.108</v>
+        <v>-12.684</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,13 +638,13 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.676</v>
+        <v>-12.745</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.172</v>
+        <v>12.762</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.494</v>
+        <v>12.911</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.53</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.136</v>
+        <v>-12.251</v>
       </c>
       <c r="D15" t="n">
         <v>-6.43</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.21</v>
+        <v>12.862</v>
       </c>
     </row>
     <row r="23">
